--- a/心之器.xlsx
+++ b/心之器.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ccxxx\PycharmProjects\re0\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CB76F7AA-D8B8-43FE-870F-54D4A1722CF6}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D4E3A9F5-0342-4C13-B908-B00F033DE480}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="1" xr2:uid="{2E0A843E-394B-47E0-B38E-6D9BAD061813}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{2E0A843E-394B-47E0-B38E-6D9BAD061813}"/>
   </bookViews>
   <sheets>
     <sheet name="心之器等级" sheetId="2" r:id="rId1"/>
     <sheet name="心之器属性" sheetId="1" r:id="rId2"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <definedNames>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">心之器等级!$A$1:$C$56</definedName>
+  </definedNames>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -664,9 +667,16 @@
   <sheetPr codeName="Sheet1"/>
   <dimension ref="A1:C56"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B4" sqref="B4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="19.21875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="7.5546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="5.5546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
@@ -681,7 +691,7 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="B2">
         <v>5</v>
@@ -692,7 +702,7 @@
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>48</v>
+        <v>14</v>
       </c>
       <c r="B3">
         <v>5</v>
@@ -703,7 +713,7 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="B4">
         <v>5</v>
@@ -714,7 +724,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>65</v>
+        <v>57</v>
       </c>
       <c r="B5">
         <v>5</v>
@@ -725,7 +735,7 @@
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>16</v>
+        <v>59</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -736,7 +746,7 @@
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>28</v>
+        <v>6</v>
       </c>
       <c r="B7">
         <v>5</v>
@@ -747,7 +757,7 @@
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>66</v>
+        <v>7</v>
       </c>
       <c r="B8">
         <v>5</v>
@@ -758,7 +768,7 @@
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>30</v>
+        <v>9</v>
       </c>
       <c r="B9">
         <v>5</v>
@@ -769,7 +779,7 @@
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>45</v>
+        <v>21</v>
       </c>
       <c r="B10">
         <v>5</v>
@@ -780,7 +790,7 @@
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>51</v>
+        <v>23</v>
       </c>
       <c r="B11">
         <v>5</v>
@@ -791,7 +801,7 @@
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
       <c r="B12">
         <v>5</v>
@@ -802,7 +812,7 @@
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>58</v>
+        <v>34</v>
       </c>
       <c r="B13">
         <v>5</v>
@@ -813,7 +823,7 @@
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>62</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>5</v>
@@ -824,10 +834,10 @@
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>11</v>
+        <v>42</v>
       </c>
       <c r="B15">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C15">
         <v>40</v>
@@ -835,10 +845,10 @@
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>13</v>
+        <v>26</v>
       </c>
       <c r="B16">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="C16">
         <v>40</v>
@@ -846,24 +856,24 @@
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
       <c r="B17">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C17">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>26</v>
+        <v>13</v>
       </c>
       <c r="B18">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C18">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
@@ -871,230 +881,230 @@
         <v>39</v>
       </c>
       <c r="B19">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C19">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>40</v>
+        <v>50</v>
       </c>
       <c r="B20">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="C20">
-        <v>40</v>
+        <v>35</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>41</v>
+        <v>28</v>
       </c>
       <c r="B21">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C21">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>42</v>
+        <v>66</v>
       </c>
       <c r="B22">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C22">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="B23">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="C23">
-        <v>40</v>
+        <v>30</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B24">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C24">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="B25">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C25">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="B26">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C26">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>59</v>
+        <v>61</v>
       </c>
       <c r="B27">
-        <v>5</v>
+        <v>0</v>
       </c>
       <c r="C27">
-        <v>40</v>
+        <v>25</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>60</v>
+        <v>47</v>
       </c>
       <c r="B28">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C28">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>61</v>
+        <v>65</v>
       </c>
       <c r="B29">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C29">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>6</v>
+        <v>16</v>
       </c>
       <c r="B30">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C30">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>7</v>
+        <v>30</v>
       </c>
       <c r="B31">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C31">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>9</v>
+        <v>45</v>
       </c>
       <c r="B32">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C32">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>20</v>
+        <v>58</v>
       </c>
       <c r="B33">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C33">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>21</v>
+        <v>62</v>
       </c>
       <c r="B34">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C34">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>22</v>
+        <v>40</v>
       </c>
       <c r="B35">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C35">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>23</v>
+        <v>55</v>
       </c>
       <c r="B36">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C36">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>33</v>
+        <v>60</v>
       </c>
       <c r="B37">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C37">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>34</v>
+        <v>20</v>
       </c>
       <c r="B38">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C38">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>36</v>
+        <v>22</v>
       </c>
       <c r="B39">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C39">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
@@ -1102,10 +1112,10 @@
         <v>0</v>
       </c>
       <c r="B40">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C40">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
@@ -1113,10 +1123,10 @@
         <v>1</v>
       </c>
       <c r="B41">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C41">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
@@ -1124,10 +1134,10 @@
         <v>18</v>
       </c>
       <c r="B42">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C42">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
@@ -1135,10 +1145,10 @@
         <v>19</v>
       </c>
       <c r="B43">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C43">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
@@ -1146,10 +1156,10 @@
         <v>31</v>
       </c>
       <c r="B44">
-        <v>5</v>
+        <v>-1</v>
       </c>
       <c r="C44">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
@@ -1160,7 +1170,7 @@
         <v>-1</v>
       </c>
       <c r="C45">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
@@ -1171,7 +1181,7 @@
         <v>-1</v>
       </c>
       <c r="C46">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
@@ -1182,7 +1192,7 @@
         <v>-1</v>
       </c>
       <c r="C47">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
@@ -1193,7 +1203,7 @@
         <v>-1</v>
       </c>
       <c r="C48">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.25">
@@ -1204,7 +1214,7 @@
         <v>-1</v>
       </c>
       <c r="C49">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.25">
@@ -1215,7 +1225,7 @@
         <v>-1</v>
       </c>
       <c r="C50">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.25">
@@ -1226,7 +1236,7 @@
         <v>-1</v>
       </c>
       <c r="C51">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.25">
@@ -1237,7 +1247,7 @@
         <v>-1</v>
       </c>
       <c r="C52">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.25">
@@ -1248,7 +1258,7 @@
         <v>-1</v>
       </c>
       <c r="C53">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="54" spans="1:3" x14ac:dyDescent="0.25">
@@ -1259,7 +1269,7 @@
         <v>-1</v>
       </c>
       <c r="C54">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="55" spans="1:3" x14ac:dyDescent="0.25">
@@ -1270,7 +1280,7 @@
         <v>-1</v>
       </c>
       <c r="C55">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
     <row r="56" spans="1:3" x14ac:dyDescent="0.25">
@@ -1281,10 +1291,15 @@
         <v>-1</v>
       </c>
       <c r="C56">
-        <v>40</v>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
+  <autoFilter ref="A1:C56" xr:uid="{427859EE-46BC-4867-A8BC-58C5C0D8032E}">
+    <sortState ref="A2:C56">
+      <sortCondition descending="1" ref="B1:B56"/>
+    </sortState>
+  </autoFilter>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -1296,7 +1311,7 @@
   <sheetPr codeName="Sheet2"/>
   <dimension ref="A1:W56"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane xSplit="1" ySplit="1" topLeftCell="B11" activePane="bottomRight" state="frozenSplit"/>
       <selection pane="topRight" activeCell="H1" sqref="H1"/>
       <selection pane="bottomLeft" activeCell="A10" sqref="A10"/>
